--- a/Laborator 4 - Procesorul MIPS 32, ciclu unic – Introducere/OperatiiMIPS.xlsx
+++ b/Laborator 4 - Procesorul MIPS 32, ciclu unic – Introducere/OperatiiMIPS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Facultate\AC\Computer-Architecture-Labs\Laborator 4 - Procesorul MIPS 32, ciclu unic – Introducere\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29233AD2-1F0B-4961-A8CC-EE2BEEE279CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D64ACAA-D023-4F86-BCCE-FBC0D9EC514B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C5633955-860D-4033-949A-2EF0D01F4332}"/>
   </bookViews>
@@ -5264,7 +5264,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F4E8A3A-53B8-46D6-9B00-684A81393127}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
       <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
